--- a/PageObjectModel/resources/repository/LoginTestData.xlsx
+++ b/PageObjectModel/resources/repository/LoginTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajar\eclipse-workspace\PageObjectModel\PageObjectModel\resources\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB16FFD7-5791-4B3D-BDB2-5F27AF32DB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1001BB6-2624-412A-B750-74B92B6F0667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BFA12276-C740-492F-8575-AF83AD39259A}"/>
   </bookViews>
@@ -33,31 +33,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
-    <t>cnjfhiuesjc</t>
+    <t>Username</t>
   </si>
   <si>
-    <t>lkdfief</t>
+    <t>Password</t>
   </si>
   <si>
-    <t>fnskjfal;</t>
+    <t>rajeshwarigandi26@gmail.com</t>
   </si>
   <si>
-    <t>ldfkkjf</t>
+    <t>Raji@123</t>
   </si>
   <si>
-    <t>lfkiojsdsk</t>
+    <t>Raji@124</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -80,13 +94,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -402,33 +419,44 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{D4ADF010-B636-4B90-B84F-D3DE64D05178}"/>
+    <hyperlink ref="B3" r:id="rId2" display="Raji@123" xr:uid="{3B342970-FFE0-41D0-9801-AAB6D8E2D85B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>